--- a/Test Curves/Worm.xlsx
+++ b/Test Curves/Worm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tajac\OneDrive\Documents\GitHub\ENME802_2021S1_Project2\Test Curves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDFDBEA-8236-4013-9DD0-44158A8DD106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E604F568-0EF8-40F8-A38C-76ED080D3533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FBB5E41-64A5-4B15-92F0-2C9757ADE9FC}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
